--- a/Documentatie/Planning.xlsx
+++ b/Documentatie/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Project-5\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF964A2D-D54B-4058-9C86-5D6A6DF9D8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F87497-3C16-44C6-82F4-6693DE936D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B7BF016-FDDD-43D2-9764-44113EFD7847}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Damien</t>
   </si>
@@ -57,14 +57,29 @@
     <t>eigen pagina</t>
   </si>
   <si>
-    <t>documentatie</t>
+    <t>logboek</t>
+  </si>
+  <si>
+    <t>reflectie</t>
+  </si>
+  <si>
+    <t>doorlooptijd</t>
+  </si>
+  <si>
+    <t>github maken</t>
+  </si>
+  <si>
+    <t>beoordelen</t>
+  </si>
+  <si>
+    <t>github bijwerken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +123,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +172,35 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -227,62 +284,234 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="11">
     <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="8" builtinId="39"/>
+    <cellStyle name="60% - Accent5" xfId="10" builtinId="48"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
+    <cellStyle name="Accent4" xfId="9" builtinId="41"/>
     <cellStyle name="Berekening" xfId="3" builtinId="22"/>
+    <cellStyle name="Controlecel" xfId="7" builtinId="23"/>
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Invoer" xfId="6" builtinId="20"/>
     <cellStyle name="Neutraal" xfId="2" builtinId="28"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -596,485 +825,666 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A2A794-8767-49F1-9509-5AFBCF9A78BE}">
-  <dimension ref="A2:V36"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D24"/>
+      <selection activeCell="O22" sqref="O22:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="10.5703125" customWidth="1"/>
+    <col min="14" max="21" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1">
+        <v>43787</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43788</v>
+      </c>
+      <c r="E1" s="1">
+        <v>43789</v>
+      </c>
+      <c r="F1" s="1">
+        <v>43790</v>
+      </c>
+      <c r="G1" s="1">
+        <v>43791</v>
+      </c>
+      <c r="H1" s="1">
+        <v>43794</v>
+      </c>
+      <c r="I1" s="1">
+        <v>43795</v>
+      </c>
+      <c r="J1" s="1">
+        <v>43796</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="2">
+        <v>0.35416666666666669</v>
+      </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="22"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="2">
+        <v>0.38541666666666702</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="2">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="2">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="2">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="23"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="2">
+        <v>0.38541666666666702</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="2">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="25"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="2">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="26"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="2">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="26"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="26"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C3" s="1">
-        <v>43787</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43788</v>
-      </c>
-      <c r="E3" s="1">
-        <v>43789</v>
-      </c>
-      <c r="F3" s="1">
-        <v>43790</v>
-      </c>
-      <c r="G3" s="1">
-        <v>43791</v>
-      </c>
-      <c r="H3" s="1">
-        <v>43794</v>
-      </c>
-      <c r="I3" s="1">
-        <v>43795</v>
-      </c>
-      <c r="J3" s="1">
-        <v>43796</v>
-      </c>
-      <c r="O3" s="1">
-        <v>43787</v>
-      </c>
-      <c r="P3" s="1">
-        <v>43788</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>43789</v>
-      </c>
-      <c r="R3" s="1">
-        <v>43790</v>
-      </c>
-      <c r="S3" s="1">
-        <v>43791</v>
-      </c>
-      <c r="T3" s="1">
-        <v>43794</v>
-      </c>
-      <c r="U3" s="1">
-        <v>43795</v>
-      </c>
-      <c r="V3" s="1">
-        <v>43796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2">
+      <c r="B20" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="11"/>
-      <c r="N4" s="2">
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="22"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="J21" s="23"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34"/>
+      <c r="B22" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="23"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34"/>
+      <c r="B23" s="2">
+        <v>0.38541666666666702</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="23"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="34"/>
+      <c r="B24" s="2">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="24"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="2">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="26"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
+      <c r="B27" s="2">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="26"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="12"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="34"/>
+      <c r="B28" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="2">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="12"/>
-      <c r="N5" s="2">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
+      <c r="C30" s="3"/>
+      <c r="D30" s="5"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="34"/>
+      <c r="B31" s="2">
         <v>0.375</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="13"/>
-      <c r="N6" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
+      <c r="C31" s="3"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="2">
         <v>0.38541666666666702</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="14"/>
-      <c r="N7" s="2">
-        <v>0.38541666666666702</v>
-      </c>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2">
+      <c r="C32" s="27"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34"/>
+      <c r="B33" s="2">
         <v>0.39583333333333298</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="14"/>
-      <c r="N8" s="2">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2">
+      <c r="C33" s="28"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="2">
         <v>0.40625</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="14"/>
-      <c r="N9" s="2">
-        <v>0.40625</v>
-      </c>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2">
+      <c r="C34" s="28"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="25"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="2">
         <v>0.41666666666666602</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="14"/>
-      <c r="N10" s="2">
-        <v>0.41666666666666602</v>
-      </c>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2">
+      <c r="C35" s="28"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="34"/>
+      <c r="B36" s="2">
         <v>0.42708333333333298</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="14"/>
-      <c r="N11" s="2">
-        <v>0.42708333333333298</v>
-      </c>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2">
+      <c r="C36" s="29"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
+      <c r="B37" s="2">
         <v>0.4375</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="14"/>
-      <c r="N12" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="C15" s="1">
-        <v>43787</v>
-      </c>
-      <c r="D15" s="1">
-        <v>43788</v>
-      </c>
-      <c r="E15" s="1">
-        <v>43789</v>
-      </c>
-      <c r="F15" s="1">
-        <v>43790</v>
-      </c>
-      <c r="G15" s="1">
-        <v>43791</v>
-      </c>
-      <c r="H15" s="1">
-        <v>43794</v>
-      </c>
-      <c r="I15" s="1">
-        <v>43795</v>
-      </c>
-      <c r="J15" s="1">
-        <v>43796</v>
-      </c>
-      <c r="O15" s="1">
-        <v>43787</v>
-      </c>
-      <c r="P15" s="1">
-        <v>43788</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>43789</v>
-      </c>
-      <c r="R15" s="1">
-        <v>43790</v>
-      </c>
-      <c r="S15" s="1">
-        <v>43791</v>
-      </c>
-      <c r="T15" s="1">
-        <v>43794</v>
-      </c>
-      <c r="U15" s="1">
-        <v>43795</v>
-      </c>
-      <c r="V15" s="1">
-        <v>43796</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="11"/>
-      <c r="N16" s="2">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="12"/>
-      <c r="N17" s="2">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="12"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="13"/>
-      <c r="N18" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="13"/>
-    </row>
-    <row r="19" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2">
-        <v>0.38541666666666702</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="N19" s="2">
-        <v>0.38541666666666702</v>
-      </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="N20" s="2">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>0.40625</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="N21" s="2">
-        <v>0.40625</v>
-      </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>0.41666666666666602</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="N22" s="2">
-        <v>0.41666666666666602</v>
-      </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <v>0.42708333333333298</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="N23" s="2">
-        <v>0.42708333333333298</v>
-      </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="N24" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="P19:P24"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="O19:O24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="O7:O12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="N14:V14"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="N2:V2"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="C4:C6"/>
+  <mergeCells count="55">
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="A1:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="J11:J15"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
